--- a/biology/Zoologie/Appenninico/Appenninico.xlsx
+++ b/biology/Zoologie/Appenninico/Appenninico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L′Appenninico (italien : cavallo Appenninico) est une race de chevaux de trait légers originaire de la région des Apennins, en Italie. Il est majoritairement élevé pour sa viande.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race descend de chevaux Franches-Montagnes importés depuis la Suisse à la fin des années 1960 par Vittorio Ortalli, un entrepreneur local[1],[2]. L'Appenninico rencontre du succès sur ce terrain montagneux et pauvre, auquel il s'adapte[1].
-L'Appenninico est officiellement reconnu comme race locale italienne à faible diffusion en 2010[2],[3]. En décembre 2012, une réunion au Département de l'agriculture de la province d'Émilie-Romagne souligne la bonne diffusion de la race et l'intérêt à la préserver[4]. En avril 2016, la région Toscane vote des aides pour la sauvegarde des races animales en voie d'extinction, dont l'Appenninico, à hauteur de 200 € par an[5]. Cette aide est intégrée au plan toscan de « préservation des ressources génétiques animales pour la préservation de la biodiversité » (conservazione di risorse genetiche animali per la salvaguardia della biodiversità) de 2014 à 2020[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race descend de chevaux Franches-Montagnes importés depuis la Suisse à la fin des années 1960 par Vittorio Ortalli, un entrepreneur local,. L'Appenninico rencontre du succès sur ce terrain montagneux et pauvre, auquel il s'adapte.
+L'Appenninico est officiellement reconnu comme race locale italienne à faible diffusion en 2010,. En décembre 2012, une réunion au Département de l'agriculture de la province d'Émilie-Romagne souligne la bonne diffusion de la race et l'intérêt à la préserver. En avril 2016, la région Toscane vote des aides pour la sauvegarde des races animales en voie d'extinction, dont l'Appenninico, à hauteur de 200 € par an. Cette aide est intégrée au plan toscan de « préservation des ressources génétiques animales pour la préservation de la biodiversité » (conservazione di risorse genetiche animali per la salvaguardia della biodiversità) de 2014 à 2020.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il présente le modèle du cheval de trait léger[3]. Les mâles toisent 1,50 m à 1,60 m, et les femelles 1,40 m à 1,50 m[1],[3]. Le poids va de 550 à 600 kg[3].
-La tête, plutôt légère[1], est de profil rectiligne[3]. Le poitrail et le dos sont larges[3]. Les pieds sont larges et solides[1].
-La robe est baie ou alezane[1].
-La race est rustique, docile, frugale, et s'adapte facilement, ce qui constitue des facteurs de succès socio-économiques[2]. L'Appenninico se montre dynamique et intelligent[7]. La race est gérée dans le Registro Anagrafico razze equine ed asinine a limitata diffusione (UELN 380001).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente le modèle du cheval de trait léger. Les mâles toisent 1,50 m à 1,60 m, et les femelles 1,40 m à 1,50 m,. Le poids va de 550 à 600 kg.
+La tête, plutôt légère, est de profil rectiligne. Le poitrail et le dos sont larges. Les pieds sont larges et solides.
+La robe est baie ou alezane.
+La race est rustique, docile, frugale, et s'adapte facilement, ce qui constitue des facteurs de succès socio-économiques. L'Appenninico se montre dynamique et intelligent. La race est gérée dans le Registro Anagrafico razze equine ed asinine a limitata diffusione (UELN 380001).
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces chevaux sont réputés pour la production de viande, mais aussi pour la traction, la selle et le tourisme équestre[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont réputés pour la production de viande, mais aussi pour la traction, la selle et le tourisme équestre.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est indiquée comme rare sur DAD-IS (2018)[8]. En 2013, le stud-book compte 636 sujets[8] ; en 2017, le comptage est de 662[9]. Les régions d'élevage sont la haute Toscane et l'Émilie-Romagne[3],[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est indiquée comme rare sur DAD-IS (2018). En 2013, le stud-book compte 636 sujets ; en 2017, le comptage est de 662. Les régions d'élevage sont la haute Toscane et l'Émilie-Romagne,.
 </t>
         </is>
       </c>
